--- a/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
+++ b/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\fairy.cxp6871\team1\sql\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930"/>
+    <workbookView windowWidth="23895" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>所属表名</t>
   </si>
@@ -72,13 +67,37 @@
   </si>
   <si>
     <t>菜单id，原power_menu_id</t>
+  </si>
+  <si>
+    <t>新闻类型 NEWS_TYPE</t>
+  </si>
+  <si>
+    <t>添加表</t>
+  </si>
+  <si>
+    <t>上官炳强</t>
+  </si>
+  <si>
+    <t>新闻表 NEWS</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>新闻类型字段名称修改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +110,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -99,32 +117,166 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,7 +285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,8 +301,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -184,9 +522,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -229,13 +809,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -263,9 +891,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -552,19 +1177,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="26.375" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
@@ -575,7 +1200,7 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1">
+    <row r="1" ht="26.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1">
+    <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -641,7 +1266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -649,7 +1274,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -657,7 +1282,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -665,23 +1290,43 @@
       <c r="E6" s="7"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E7" s="9">
+        <v>43182</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43182</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -689,7 +1334,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -697,7 +1342,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -705,7 +1350,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="10"/>
@@ -713,7 +1358,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="12"/>
       <c r="C13" s="10"/>
@@ -721,7 +1366,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="10"/>
       <c r="B14" s="12"/>
       <c r="C14" s="10"/>
@@ -729,7 +1374,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="10"/>
@@ -737,7 +1382,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>
@@ -826,36 +1471,42 @@
       <c r="F26" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
+++ b/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9870"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -133,6 +133,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,6 +186,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,121 +260,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -303,37 +303,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,19 +429,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,121 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,15 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -543,6 +534,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,22 +581,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,8 +615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
+++ b/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>所属表名</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>新闻类型字段名称修改</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>新闻标题</t>
+  </si>
+  <si>
+    <t>徐瑜壮</t>
   </si>
 </sst>
 </file>
@@ -133,9 +142,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,81 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,31 +226,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +532,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -553,15 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -573,15 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,26 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1195,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1327,12 +1336,24 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43185</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>

--- a/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
+++ b/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="23895" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>所属表名</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>徐瑜壮</t>
+  </si>
+  <si>
+    <t>管理员表 Manager</t>
+  </si>
+  <si>
+    <t>head_img</t>
+  </si>
+  <si>
+    <t>添加字段</t>
+  </si>
+  <si>
+    <t>管理员头像路径</t>
   </si>
 </sst>
 </file>
@@ -101,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -148,16 +160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,8 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +196,52 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,21 +262,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -233,46 +284,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,19 +324,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,163 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,13 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,20 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +598,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -600,32 +633,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,7 +1207,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1372,12 +1384,24 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11">
+        <v>43188</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10"/>

--- a/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
+++ b/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9870"/>
+    <workbookView windowWidth="17775" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>所属表名</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>管理员头像路径</t>
+  </si>
+  <si>
+    <t>待办事项表 backlog</t>
+  </si>
+  <si>
+    <t>工作记录表 work_record</t>
   </si>
 </sst>
 </file>
@@ -113,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -275,23 +281,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,6 +330,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,12 +360,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,31 +414,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,24 +480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,6 +492,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -456,55 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,16 +667,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,112 +688,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,8 +1212,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1404,20 +1410,36 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="11">
+        <v>43188</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="11">
+        <v>43188</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10"/>

--- a/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
+++ b/相关文件/3.数据字典&数据库变更记录/数据表变动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17775" windowHeight="5985"/>
+    <workbookView windowWidth="20385" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>所属表名</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>工作记录表 work_record</t>
+  </si>
+  <si>
+    <t>应用程序数据统计表app_data_count</t>
   </si>
 </sst>
 </file>
@@ -120,8 +123,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1213,12 +1216,12 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="34.75" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="29.25" customWidth="1"/>
@@ -1442,12 +1445,20 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="11">
+        <v>43190</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10"/>
